--- a/matrixmixer-passive.xlsx
+++ b/matrixmixer-passive.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="matrixmixer-passive" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -40,6 +40,18 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">PINHD-1X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1X02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1, JP2, JP3, JP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN HEADER</t>
+  </si>
+  <si>
     <t xml:space="preserve">100k</t>
   </si>
   <si>
@@ -80,6 +92,15 @@
   </si>
   <si>
     <t xml:space="preserve">3.5mm socket for Eurorack modular synths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For DC-coupled inputs, use a wire link on JP1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For AC-coupled inputs, use a small (100nF) capacitor</t>
   </si>
 </sst>
 </file>
@@ -168,7 +189,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,21 +210,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,22 +249,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,27 +269,27 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
@@ -284,12 +302,47 @@
       </c>
       <c r="F4" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
